--- a/기타/API 명세서/API 명세서.xlsx
+++ b/기타/API 명세서/API 명세서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sin00\OneDrive\문서\GitHub\CsharpProject\기타\API 명세서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE7C11AE-7AF8-472B-A957-ADDB77CC7BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64BD87BD-03B5-4076-89A8-94D959218CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1208,33 +1208,120 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1262,8 +1349,29 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1271,94 +1379,115 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1366,135 +1495,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1778,785 +1778,731 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A52" zoomScale="60" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61:G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.9140625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.08203125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="14.58203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.58203125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="13.08203125" style="12" customWidth="1"/>
-    <col min="7" max="7" width="21.58203125" style="12" customWidth="1"/>
-    <col min="8" max="8" width="3.1640625" style="12" customWidth="1"/>
-    <col min="9" max="16384" width="8.6640625" style="12"/>
+    <col min="1" max="1" width="2.9140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.08203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.58203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.58203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="13.08203125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="21.58203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="3.1640625" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:9" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="11"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
     </row>
     <row r="3" spans="2:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="4" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="89"/>
-      <c r="D4" s="13" t="s">
+      <c r="C4" s="56"/>
+      <c r="D4" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="15"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="44"/>
     </row>
     <row r="5" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="90" t="s">
+      <c r="B5" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="91"/>
-      <c r="D5" s="16" t="s">
+      <c r="C5" s="52"/>
+      <c r="D5" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="18"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="47"/>
     </row>
     <row r="6" spans="2:9" ht="199.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="92" t="s">
+      <c r="B6" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="93"/>
-      <c r="D6" s="19" t="s">
+      <c r="C6" s="58"/>
+      <c r="D6" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="21"/>
-      <c r="I6" s="22"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="50"/>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" spans="2:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="8" spans="2:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="94" t="s">
+      <c r="B8" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="95"/>
-      <c r="D8" s="23" t="s">
+      <c r="C8" s="54"/>
+      <c r="D8" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="24"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="60"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B9" s="90" t="s">
+      <c r="B9" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="91"/>
-      <c r="D9" s="16" t="s">
+      <c r="C9" s="52"/>
+      <c r="D9" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="18"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="47"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B10" s="90" t="s">
+      <c r="B10" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="91"/>
-      <c r="D10" s="16" t="s">
+      <c r="C10" s="52"/>
+      <c r="D10" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="18"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="47"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B11" s="90" t="s">
+      <c r="B11" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="91"/>
-      <c r="D11" s="25" t="s">
+      <c r="C11" s="52"/>
+      <c r="D11" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="27"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="72"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B12" s="90"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="27"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="72"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B13" s="90"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="27"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="72"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B14" s="90"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="27"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="72"/>
     </row>
     <row r="15" spans="2:9" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="92" t="s">
+      <c r="B15" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="93"/>
-      <c r="D15" s="28" t="s">
+      <c r="C15" s="58"/>
+      <c r="D15" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="30"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="75"/>
     </row>
     <row r="17" spans="2:7" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5" t="s">
+      <c r="C18" s="88"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="6"/>
+      <c r="G18" s="91"/>
     </row>
     <row r="19" spans="2:7" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32" t="s">
+      <c r="C19" s="89"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="33"/>
+      <c r="G19" s="90"/>
     </row>
     <row r="20" spans="2:7" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29" t="s">
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="G20" s="30"/>
+      <c r="G20" s="75"/>
     </row>
     <row r="22" spans="2:7" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="35"/>
+      <c r="C22" s="68"/>
     </row>
     <row r="23" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B23" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="7"/>
+      <c r="D23" s="27"/>
       <c r="E23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="8"/>
+      <c r="G23" s="28"/>
     </row>
     <row r="24" spans="2:7" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="37" t="s">
+      <c r="C24" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="37"/>
-      <c r="E24" s="38" t="s">
+      <c r="D24" s="78"/>
+      <c r="E24" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="37" t="s">
+      <c r="F24" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="G24" s="39"/>
+      <c r="G24" s="97"/>
     </row>
     <row r="25" spans="2:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="41" t="s">
+      <c r="C25" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="41"/>
-      <c r="E25" s="42" t="s">
+      <c r="D25" s="26"/>
+      <c r="E25" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F25" s="41" t="s">
+      <c r="F25" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="G25" s="43"/>
+      <c r="G25" s="96"/>
     </row>
     <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="40" t="s">
+      <c r="B26" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="41" t="s">
+      <c r="C26" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="41"/>
-      <c r="E26" s="42" t="s">
+      <c r="D26" s="26"/>
+      <c r="E26" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="41" t="s">
+      <c r="F26" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="G26" s="43"/>
+      <c r="G26" s="96"/>
     </row>
     <row r="27" spans="2:7" ht="107.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="40" t="s">
+      <c r="B27" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="41" t="s">
+      <c r="C27" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="41"/>
-      <c r="E27" s="42" t="s">
+      <c r="D27" s="26"/>
+      <c r="E27" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F27" s="41" t="s">
+      <c r="F27" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="G27" s="43"/>
+      <c r="G27" s="96"/>
     </row>
     <row r="28" spans="2:7" ht="57" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="44" t="s">
+      <c r="B28" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="45" t="s">
+      <c r="C28" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="45"/>
-      <c r="E28" s="42" t="s">
+      <c r="D28" s="76"/>
+      <c r="E28" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F28" s="45" t="s">
+      <c r="F28" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="G28" s="46"/>
-    </row>
-    <row r="29" spans="2:7" ht="107" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B29" s="47" t="s">
+      <c r="G28" s="95"/>
+    </row>
+    <row r="29" spans="2:7" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B29" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="48" t="s">
+      <c r="C29" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="48"/>
-      <c r="E29" s="49" t="s">
+      <c r="D29" s="77"/>
+      <c r="E29" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F29" s="48" t="s">
+      <c r="F29" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="G29" s="50"/>
+      <c r="G29" s="94"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B30" s="51"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="51"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
     </row>
     <row r="31" spans="2:7" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="35"/>
+      <c r="C31" s="68"/>
     </row>
     <row r="32" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B32" s="96" t="s">
+      <c r="B32" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="7"/>
+      <c r="C32" s="27"/>
       <c r="D32" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="F32" s="7"/>
-      <c r="G32" s="8"/>
-    </row>
-    <row r="33" spans="2:7" s="57" customFormat="1" ht="41" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="52" t="s">
+      <c r="F32" s="27"/>
+      <c r="G32" s="28"/>
+    </row>
+    <row r="33" spans="2:7" s="15" customFormat="1" ht="41" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="53"/>
-      <c r="D33" s="54" t="s">
+      <c r="C33" s="30"/>
+      <c r="D33" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E33" s="55" t="s">
+      <c r="E33" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="F33" s="55"/>
-      <c r="G33" s="56"/>
-    </row>
-    <row r="34" spans="2:7" s="57" customFormat="1" ht="52" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="58" t="s">
+      <c r="F33" s="98"/>
+      <c r="G33" s="99"/>
+    </row>
+    <row r="34" spans="2:7" s="15" customFormat="1" ht="52" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="C34" s="59"/>
-      <c r="D34" s="60" t="s">
+      <c r="C34" s="33"/>
+      <c r="D34" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E34" s="61" t="s">
+      <c r="E34" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="F34" s="61"/>
-      <c r="G34" s="62"/>
-    </row>
-    <row r="35" spans="2:7" s="57" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="58" t="s">
+      <c r="F34" s="37"/>
+      <c r="G34" s="38"/>
+    </row>
+    <row r="35" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="59"/>
-      <c r="D35" s="60" t="s">
+      <c r="C35" s="33"/>
+      <c r="D35" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E35" s="59" t="s">
+      <c r="E35" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="F35" s="59"/>
-      <c r="G35" s="63"/>
-    </row>
-    <row r="36" spans="2:7" s="57" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="58" t="s">
+      <c r="F35" s="33"/>
+      <c r="G35" s="34"/>
+    </row>
+    <row r="36" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="C36" s="59"/>
-      <c r="D36" s="60" t="s">
+      <c r="C36" s="33"/>
+      <c r="D36" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="E36" s="59" t="s">
+      <c r="E36" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="59"/>
-      <c r="G36" s="63"/>
-    </row>
-    <row r="37" spans="2:7" s="57" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="58" t="s">
+      <c r="F36" s="33"/>
+      <c r="G36" s="34"/>
+    </row>
+    <row r="37" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="59"/>
-      <c r="D37" s="60" t="s">
+      <c r="C37" s="33"/>
+      <c r="D37" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="E37" s="59" t="s">
+      <c r="E37" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="F37" s="59"/>
-      <c r="G37" s="63"/>
-    </row>
-    <row r="38" spans="2:7" s="57" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="58" t="s">
+      <c r="F37" s="33"/>
+      <c r="G37" s="34"/>
+    </row>
+    <row r="38" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="C38" s="59"/>
-      <c r="D38" s="60" t="s">
+      <c r="C38" s="33"/>
+      <c r="D38" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="E38" s="59" t="s">
+      <c r="E38" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="F38" s="59"/>
-      <c r="G38" s="63"/>
-    </row>
-    <row r="39" spans="2:7" s="57" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="58" t="s">
+      <c r="F38" s="33"/>
+      <c r="G38" s="34"/>
+    </row>
+    <row r="39" spans="2:7" s="15" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="C39" s="59"/>
-      <c r="D39" s="60" t="s">
+      <c r="C39" s="33"/>
+      <c r="D39" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E39" s="61" t="s">
+      <c r="E39" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="F39" s="61"/>
-      <c r="G39" s="62"/>
-    </row>
-    <row r="40" spans="2:7" s="57" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="58" t="s">
+      <c r="F39" s="37"/>
+      <c r="G39" s="38"/>
+    </row>
+    <row r="40" spans="2:7" s="15" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="C40" s="59"/>
-      <c r="D40" s="60" t="s">
+      <c r="C40" s="33"/>
+      <c r="D40" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E40" s="61" t="s">
+      <c r="E40" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="F40" s="61"/>
-      <c r="G40" s="62"/>
-    </row>
-    <row r="41" spans="2:7" s="57" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="58" t="s">
+      <c r="F40" s="37"/>
+      <c r="G40" s="38"/>
+    </row>
+    <row r="41" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="C41" s="59"/>
-      <c r="D41" s="60" t="s">
+      <c r="C41" s="33"/>
+      <c r="D41" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E41" s="59" t="s">
+      <c r="E41" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="F41" s="59"/>
-      <c r="G41" s="63"/>
-    </row>
-    <row r="42" spans="2:7" s="57" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="58" t="s">
+      <c r="F41" s="33"/>
+      <c r="G41" s="34"/>
+    </row>
+    <row r="42" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="C42" s="59"/>
-      <c r="D42" s="60" t="s">
+      <c r="C42" s="33"/>
+      <c r="D42" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E42" s="59" t="s">
+      <c r="E42" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="F42" s="59"/>
-      <c r="G42" s="63"/>
-    </row>
-    <row r="43" spans="2:7" s="57" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="58" t="s">
+      <c r="F42" s="33"/>
+      <c r="G42" s="34"/>
+    </row>
+    <row r="43" spans="2:7" s="15" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="C43" s="59"/>
-      <c r="D43" s="60" t="s">
+      <c r="C43" s="33"/>
+      <c r="D43" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="E43" s="61" t="s">
+      <c r="E43" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="F43" s="61"/>
-      <c r="G43" s="62"/>
-    </row>
-    <row r="44" spans="2:7" s="57" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="58" t="s">
+      <c r="F43" s="37"/>
+      <c r="G43" s="38"/>
+    </row>
+    <row r="44" spans="2:7" s="15" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="C44" s="59"/>
-      <c r="D44" s="60" t="s">
+      <c r="C44" s="33"/>
+      <c r="D44" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="E44" s="61" t="s">
+      <c r="E44" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="F44" s="61"/>
-      <c r="G44" s="62"/>
-    </row>
-    <row r="45" spans="2:7" s="57" customFormat="1" ht="37" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="58" t="s">
+      <c r="F44" s="37"/>
+      <c r="G44" s="38"/>
+    </row>
+    <row r="45" spans="2:7" s="15" customFormat="1" ht="37" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="C45" s="59"/>
-      <c r="D45" s="60" t="s">
+      <c r="C45" s="33"/>
+      <c r="D45" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E45" s="61" t="s">
+      <c r="E45" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="F45" s="61"/>
-      <c r="G45" s="62"/>
-    </row>
-    <row r="46" spans="2:7" s="57" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="58" t="s">
+      <c r="F45" s="37"/>
+      <c r="G45" s="38"/>
+    </row>
+    <row r="46" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="C46" s="59"/>
-      <c r="D46" s="60" t="s">
+      <c r="C46" s="33"/>
+      <c r="D46" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="E46" s="59" t="s">
+      <c r="E46" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="F46" s="59"/>
-      <c r="G46" s="63"/>
-    </row>
-    <row r="47" spans="2:7" s="57" customFormat="1" ht="101.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="58" t="s">
+      <c r="F46" s="33"/>
+      <c r="G46" s="34"/>
+    </row>
+    <row r="47" spans="2:7" s="15" customFormat="1" ht="101.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="C47" s="59"/>
-      <c r="D47" s="60" t="s">
+      <c r="C47" s="33"/>
+      <c r="D47" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="E47" s="64" t="s">
+      <c r="E47" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="F47" s="64"/>
-      <c r="G47" s="65"/>
-    </row>
-    <row r="48" spans="2:7" s="57" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="58" t="s">
+      <c r="F47" s="35"/>
+      <c r="G47" s="36"/>
+    </row>
+    <row r="48" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="C48" s="59"/>
-      <c r="D48" s="60" t="s">
+      <c r="C48" s="33"/>
+      <c r="D48" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E48" s="59" t="s">
+      <c r="E48" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="F48" s="59"/>
-      <c r="G48" s="63"/>
-    </row>
-    <row r="49" spans="2:7" s="57" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="58" t="s">
+      <c r="F48" s="33"/>
+      <c r="G48" s="34"/>
+    </row>
+    <row r="49" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="C49" s="59"/>
-      <c r="D49" s="60" t="s">
+      <c r="C49" s="33"/>
+      <c r="D49" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E49" s="59" t="s">
+      <c r="E49" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="F49" s="59"/>
-      <c r="G49" s="63"/>
-    </row>
-    <row r="50" spans="2:7" s="57" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="58" t="s">
+      <c r="F49" s="33"/>
+      <c r="G49" s="34"/>
+    </row>
+    <row r="50" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="C50" s="59"/>
-      <c r="D50" s="60" t="s">
+      <c r="C50" s="33"/>
+      <c r="D50" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E50" s="59" t="s">
+      <c r="E50" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="F50" s="59"/>
-      <c r="G50" s="63"/>
-    </row>
-    <row r="51" spans="2:7" s="57" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="58" t="s">
+      <c r="F50" s="33"/>
+      <c r="G50" s="34"/>
+    </row>
+    <row r="51" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="C51" s="59"/>
-      <c r="D51" s="60" t="s">
+      <c r="C51" s="33"/>
+      <c r="D51" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E51" s="59" t="s">
+      <c r="E51" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="F51" s="59"/>
-      <c r="G51" s="63"/>
-    </row>
-    <row r="52" spans="2:7" s="57" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="58" t="s">
+      <c r="F51" s="33"/>
+      <c r="G51" s="34"/>
+    </row>
+    <row r="52" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="C52" s="59"/>
-      <c r="D52" s="60" t="s">
+      <c r="C52" s="33"/>
+      <c r="D52" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E52" s="59" t="s">
+      <c r="E52" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="F52" s="59"/>
-      <c r="G52" s="63"/>
-    </row>
-    <row r="53" spans="2:7" s="57" customFormat="1" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B53" s="66" t="s">
+      <c r="F52" s="33"/>
+      <c r="G52" s="34"/>
+    </row>
+    <row r="53" spans="2:7" s="15" customFormat="1" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B53" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="C53" s="67"/>
-      <c r="D53" s="68" t="s">
+      <c r="C53" s="31"/>
+      <c r="D53" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E53" s="67" t="s">
+      <c r="E53" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="F53" s="67"/>
-      <c r="G53" s="69"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="32"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B54" s="70"/>
-      <c r="C54" s="71"/>
-      <c r="D54" s="71"/>
-      <c r="E54" s="71"/>
-      <c r="F54" s="71"/>
-      <c r="G54" s="71"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
     </row>
     <row r="55" spans="2:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B55" s="72" t="s">
+      <c r="B55" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="C55" s="72"/>
+      <c r="C55" s="69"/>
     </row>
     <row r="56" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B56" s="97" t="s">
+      <c r="B56" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C56" s="98"/>
-      <c r="D56" s="98"/>
-      <c r="E56" s="98"/>
-      <c r="F56" s="98"/>
-      <c r="G56" s="99"/>
+      <c r="C56" s="62"/>
+      <c r="D56" s="62"/>
+      <c r="E56" s="62"/>
+      <c r="F56" s="62"/>
+      <c r="G56" s="63"/>
     </row>
     <row r="57" spans="2:7" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="73" t="s">
+      <c r="B57" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="C57" s="74"/>
-      <c r="D57" s="74"/>
-      <c r="E57" s="74"/>
-      <c r="F57" s="74"/>
-      <c r="G57" s="75"/>
+      <c r="C57" s="65"/>
+      <c r="D57" s="65"/>
+      <c r="E57" s="65"/>
+      <c r="F57" s="65"/>
+      <c r="G57" s="66"/>
     </row>
     <row r="58" spans="2:7" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="76" t="s">
+      <c r="B58" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="C58" s="77"/>
-      <c r="D58" s="77"/>
-      <c r="E58" s="77"/>
-      <c r="F58" s="77"/>
-      <c r="G58" s="78"/>
+      <c r="C58" s="82"/>
+      <c r="D58" s="82"/>
+      <c r="E58" s="82"/>
+      <c r="F58" s="82"/>
+      <c r="G58" s="83"/>
     </row>
     <row r="59" spans="2:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B59" s="79" t="s">
+      <c r="B59" s="84" t="s">
         <v>98</v>
       </c>
-      <c r="C59" s="80"/>
-      <c r="D59" s="80"/>
-      <c r="E59" s="80"/>
-      <c r="F59" s="80"/>
-      <c r="G59" s="81"/>
+      <c r="C59" s="85"/>
+      <c r="D59" s="85"/>
+      <c r="E59" s="85"/>
+      <c r="F59" s="85"/>
+      <c r="G59" s="86"/>
     </row>
     <row r="60" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B60" s="97" t="s">
+      <c r="B60" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="C60" s="98"/>
-      <c r="D60" s="98"/>
-      <c r="E60" s="98"/>
-      <c r="F60" s="98"/>
-      <c r="G60" s="99"/>
+      <c r="C60" s="62"/>
+      <c r="D60" s="62"/>
+      <c r="E60" s="62"/>
+      <c r="F60" s="62"/>
+      <c r="G60" s="63"/>
     </row>
     <row r="61" spans="2:7" ht="409.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="82" t="s">
+      <c r="B61" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="C61" s="83"/>
-      <c r="D61" s="83"/>
-      <c r="E61" s="83"/>
-      <c r="F61" s="83"/>
-      <c r="G61" s="84"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="22"/>
     </row>
     <row r="62" spans="2:7" ht="238.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B62" s="85"/>
-      <c r="C62" s="86"/>
-      <c r="D62" s="86"/>
-      <c r="E62" s="86"/>
-      <c r="F62" s="86"/>
-      <c r="G62" s="87"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="B61:G62"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B56:G56"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D11:G14"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B11:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E39:G39"/>
     <mergeCell ref="B58:G58"/>
     <mergeCell ref="B59:G59"/>
     <mergeCell ref="B60:G60"/>
@@ -2573,20 +2519,78 @@
     <mergeCell ref="F25:G25"/>
     <mergeCell ref="F24:G24"/>
     <mergeCell ref="F23:G23"/>
+    <mergeCell ref="D11:G14"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B11:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="B32:C32"/>
     <mergeCell ref="E34:G34"/>
     <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B61:G62"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="B57:G57"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="51" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="30" max="7" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>